--- a/Modules/Config/Table/SysConfig.xlsx
+++ b/Modules/Config/Table/SysConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="30048" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>appName</t>
@@ -85,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -218,17 +218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,29 +250,6 @@
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,17 +271,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,17 +301,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,6 +327,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,37 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,19 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,19 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +480,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,13 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,33 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -685,11 +658,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,165 +704,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2171,38 +2171,38 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="11.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.87962962962963" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.12962962962963" style="5" customWidth="1"/>
+    <col min="3" max="5" width="11.6296296296296" style="5" customWidth="1"/>
     <col min="6" max="7" width="13.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="20.6666666666667" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.7083333333333" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.975" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.175" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.7037037037037" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.97222222222222" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.3796296296296" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.1759259259259" style="5" customWidth="1"/>
     <col min="13" max="13" width="24.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="32.375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="32.3796296296296" style="5" customWidth="1"/>
     <col min="15" max="15" width="27" style="5" customWidth="1"/>
-    <col min="16" max="16" width="32.875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="32.8796296296296" style="5" customWidth="1"/>
+    <col min="17" max="17" width="16.1296296296296" style="5" customWidth="1"/>
     <col min="18" max="19" width="24.75" style="5" customWidth="1"/>
-    <col min="20" max="21" width="18.125" style="5" customWidth="1"/>
+    <col min="20" max="21" width="18.1296296296296" style="5" customWidth="1"/>
     <col min="22" max="22" width="15" style="5" customWidth="1"/>
     <col min="23" max="23" width="19.5" style="5" customWidth="1"/>
-    <col min="24" max="24" width="22.875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="40.625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="22.3" style="5" customWidth="1"/>
+    <col min="24" max="24" width="22.8796296296296" style="5" customWidth="1"/>
+    <col min="25" max="25" width="40.6296296296296" style="5" customWidth="1"/>
+    <col min="26" max="26" width="22.2962962962963" style="5" customWidth="1"/>
     <col min="27" max="27" width="24" style="5" customWidth="1"/>
     <col min="28" max="29" width="14.5" style="5" customWidth="1"/>
-    <col min="30" max="30" width="18.625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="18.6296296296296" style="5" customWidth="1"/>
     <col min="31" max="31" width="36" style="5" customWidth="1"/>
-    <col min="32" max="32" width="14.875" style="5" customWidth="1"/>
-    <col min="33" max="259" width="11.175" style="5" customWidth="1"/>
+    <col min="32" max="32" width="14.8796296296296" style="5" customWidth="1"/>
+    <col min="33" max="259" width="11.1759259259259" style="5" customWidth="1"/>
     <col min="260" max="16384" width="11.1666666666667" style="5"/>
   </cols>
   <sheetData>
